--- a/case_tmp.xlsx
+++ b/case_tmp.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,20 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05020000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08010100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,18 +43,6 @@
     <t>1_4</t>
   </si>
   <si>
-    <t>startfrom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07010000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,22 +62,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CommonK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.5.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.5.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>launchSlideUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,6 +208,284 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统设置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三方应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钱包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电影票</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventProps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startfrom=05020000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startfrom=04000000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startfrom=07010000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>startfrom=08010100,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitViaCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitViaMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitViaBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitViaDoubleBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功进入万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机桌面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功进入万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> - Home</t>
     </r>
     <r>
@@ -252,6 +509,419 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>成功进入万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统设置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功进入万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三方应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钱包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电影票</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击搜索框右侧取消按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多任务键挂起后删除万象搜索进程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单击物理返回键一次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双击物理返回键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机桌面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>启动万象搜索</t>
     </r>
     <r>
@@ -280,6 +950,108 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> - </t>
     </r>
     <r>
@@ -303,26 +1075,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>启动万象搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数量</t>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
     </r>
     <r>
       <rPr>
@@ -384,27 +1156,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startfrom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventPropsK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventPropsV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pano_session_id,pano_session_id_fine_grained,variant_name,keyboard_status</t>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchFromWallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromSlideUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromHoldHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromSysSettings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromWallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acStart"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startfrom=04000000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startfrom=05020000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startfrom=07010000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startfrom=08010100,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,11 +1269,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -769,283 +1559,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="33.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>33</v>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>34</v>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/case_tmp.xlsx
+++ b/case_tmp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="210">
   <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>startfrom=04000000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EventProps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>startfrom=04000000,pano_session_id,pano_session_id_fine_grained</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>startfrom=07010000,pano_session_id,pano_session_id_fine_grained</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,57 +357,982 @@
     <t>P0</t>
   </si>
   <si>
+    <t>pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitViaCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitViaMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitViaBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitViaDoubleBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功进入万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机桌面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功进入万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功进入万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统设置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功进入万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三方应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钱包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电影票</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击搜索框右侧取消按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多任务键挂起后删除万象搜索进程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单击物理返回键一次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双击物理返回键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机桌面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统设置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三方应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钱包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电影票</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchFromWallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromSlideUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromHoldHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromSysSettings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromWallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acStart"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>startfrom=08010100,pano_session_id,pano_session_id_fine_grained</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pano_session_id,pano_session_id_fine_grained</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_3</t>
-  </si>
-  <si>
-    <t>3_4</t>
-  </si>
-  <si>
-    <t>exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exitViaCancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exitViaMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exitViaBack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exitViaDoubleBack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成功进入万象搜索</t>
+    <t>acEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>from=04000000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=05020000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=07010000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acEnd"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actEndViaBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actEndViaThrdParty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actEndViaCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actEndViaHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"invoke"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>6_4</t>
+  </si>
+  <si>
+    <t>from=05020000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=05030000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=10000000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=02020000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被暂停数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索</t>
     </r>
     <r>
       <rPr>
@@ -426,7 +1351,58 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的数据量</t>
+      <t>的调用来源分布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被暂停数量</t>
     </r>
     <r>
       <rPr>
@@ -445,20 +1421,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>手机桌面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成功进入万象搜索</t>
+      <t>返回键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>万象搜索</t>
     </r>
     <r>
       <rPr>
@@ -477,16 +1446,460 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>的数据量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Home</t>
+      <t>的调用来源分布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被暂停数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3rd</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的调用来源分布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3rd</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被暂停数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>万象搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的调用来源分布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launchHoldHomekey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invokeLaunchSlideUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invokeLaunchHoldHomekey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invokeLaunchSysSettings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invokeLaunchThrdParty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_2</t>
+  </si>
+  <si>
+    <t>7_3</t>
+  </si>
+  <si>
+    <t>7_4</t>
+  </si>
+  <si>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>01000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03000000</t>
+  </si>
+  <si>
+    <t>expose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上划</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=08010100,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=04000000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=04010000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=03000000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=05020000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=02030000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=08010100,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=05030000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=06040000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=11000000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=10000000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_5</t>
+  </si>
+  <si>
+    <t>7_6</t>
+  </si>
+  <si>
+    <t>7_7</t>
+  </si>
+  <si>
+    <t>7_8</t>
+  </si>
+  <si>
+    <t>7_9</t>
+  </si>
+  <si>
+    <t>7_10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下拉刷新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除搜索框内搜索词返回首页</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Home</t>
     </r>
     <r>
       <rPr>
@@ -509,26 +1922,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>成功进入万象搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数据量</t>
+      <t>万象搜索首页的展示量</t>
     </r>
     <r>
       <rPr>
@@ -547,39 +1941,39 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>系统设置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成功进入万象搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数据量</t>
+      <t>结果页点击搜索框内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
     </r>
     <r>
       <rPr>
@@ -598,7 +1992,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>第三方应用</t>
+      <t>钱包</t>
     </r>
     <r>
       <rPr>
@@ -617,7 +2011,215 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>钱包</t>
+      <t>电影票</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果页点击手机物理返回键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订阅卡片设置页面返回</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订阅卡片列表页面返回</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁屏解锁进入万象首页</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeLaunchSlideUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeRefreshSlideDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeDelSearchBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeLaunchHoldHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeClearSearchBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeWallet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeBackFromResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeBackFromEditsWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeBackFromWidgetList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeBackFromScreenLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>02010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickSearchHomePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickSearchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索框板块</t>
     </r>
     <r>
       <rPr>
@@ -636,39 +2238,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>电影票</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出万象搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数量</t>
+      <t>搜索框的点击</t>
     </r>
     <r>
       <rPr>
@@ -687,39 +2257,71 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>点击搜索框右侧取消按钮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出万象搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数量</t>
+      <t>首页</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框板块-搜索框的点击 - 搜索结果页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02010000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02010000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=01000000,pano_session_id,pano_session_id_fine_grained,content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=03020000,pano_session_id,pano_session_id_fine_grained,content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索框板块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消按钮的点击</t>
     </r>
     <r>
       <rPr>
@@ -738,39 +2340,147 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>多任务键挂起后删除万象搜索进程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出万象搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数量</t>
+      <t>首页</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框板块-取消按钮的点击 - 搜索结果页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCancelHomePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCancelResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02020000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02020000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,pano_session_id_fine_grained,content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索框板块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickClearButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02030000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02030000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_2</t>
+  </si>
+  <si>
+    <t>11_3</t>
+  </si>
+  <si>
+    <t>11_4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页的展示量（搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -789,39 +2499,89 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>单击物理返回键一次</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出万象搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数量</t>
+      <t>搜索首页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索历史</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>历史结果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>搜索结果页的展示量（搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -840,57 +2600,70 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>双击物理返回键</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_3</t>
-  </si>
-  <si>
-    <t>4_4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被调起数量</t>
+      <t>搜索首页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大家都在搜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>搜索结果页的展示量（搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -909,141 +2682,70 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>手机桌面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>启动万象搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被调起数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被调起数量</t>
+      <t>搜索框板块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索框</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>搜索结果页的展示量（搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -1062,141 +2764,51 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>系统设置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被调起数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第三方应用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钱包</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电影票</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launchFromWallet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actFromSlideUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actFromHoldHome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actFromSysSettings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actFromWallet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acStart"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startfrom=04000000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startfrom=05020000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startfrom=07010000,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startfrom=08010100,pano_session_id,pano_session_id_fine_grained,desktop_index</t>
+      <t>桌面返回</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=01010200,pano_session_id,pano_session_id_fine_grained,query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=01020000,pano_session_id,pano_session_id_fine_grained,query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=02010000,pano_session_id,pano_session_id_fine_grained,query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=10000000,pano_session_id,pano_session_id_fine_grained,query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03000000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeSERPHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeSERPHot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeSERPInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeSERPHome</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +2881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,6 +2889,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1559,11 +3174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1602,7 +3217,7 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -1631,7 +3246,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
@@ -1660,10 +3275,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -1718,7 +3333,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>69</v>
@@ -1747,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
@@ -1776,7 +3391,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
@@ -1805,7 +3420,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>18</v>
@@ -1834,7 +3449,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>14</v>
@@ -1863,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>46</v>
@@ -1892,7 +3507,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>47</v>
@@ -1921,7 +3536,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>48</v>
@@ -1950,7 +3565,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
@@ -1979,7 +3594,7 @@
         <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>70</v>
@@ -2008,7 +3623,7 @@
         <v>68</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>71</v>
@@ -2037,7 +3652,7 @@
         <v>68</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>72</v>
@@ -2066,13 +3681,853 @@
         <v>68</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/case_tmp.xlsx
+++ b/case_tmp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="338">
   <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2809,6 +2809,874 @@
   </si>
   <si>
     <t>exposeSERPHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用分类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更多的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,dt,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickMoreSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03010100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集数的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_ol,pos_al,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03020400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03020400"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickEpisode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickMoreEpisode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03020401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03020401"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickShowOnWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页-搜索结果最下方搜索网页按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03020500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03020500"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03020900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_ol,pos_al,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热门作品的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickHotOpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03020900"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03020600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索无结果率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeNoResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03020600"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickFollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关注的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_ol,pos_al,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickFollowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页-搜索结果-已关注的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页中本地搜索结果的发短信点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,pos_al,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickSendSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页中本地搜索结果的打电话点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCallOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021300"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页搜索结果去叫车的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_al,pos_ol,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCallTheCar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页应用搜索结果安装按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,pos_al,pos_ol,le_mobile_app_id,search_module_id,package_name,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickInstallApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021400"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03010200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickUpgradeApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页应用搜索结果更新按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03010300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010300"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickOpenApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_al,pos_ol,le_mobile_app_id,search_module_id,package_name,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页应用搜索结果打开按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03010400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010400"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickPlayNow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页搜索结果中立即播放按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_ol,pos_al,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021500"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页搜索结果中发短信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后电话列表电话的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickContactListSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021201"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页搜索结果中发短信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后电话列表电话的展示量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expseContactListSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03021201"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickContactListCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expseContactListCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021301"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03021301"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页搜索结果中打电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后电话列表电话的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页搜索结果中打电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后电话列表电话的展示量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页搜索结果中发短信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后电话列表取消的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021202"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页搜索结果中打电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后电话列表取消的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCancelContactListSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021302"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCancelContactListCall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3174,11 +4042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4527,7 +5395,679 @@
         <v>209</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/case_tmp.xlsx
+++ b/case_tmp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="351">
   <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3677,6 +3677,58 @@
   </si>
   <si>
     <t>clickCancelContactListCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reid,bucket,area,gid,vid,query,package_name,pano_session_id,pano_session_id_fine_grained,switch,has_exposedvariant_name,keyboard_status,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索首页各版块换一换后展示量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01070200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickNextPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01070200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面的展示量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4042,11 +4094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6070,6 +6122,61 @@
         <v>336</v>
       </c>
     </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/case_tmp.xlsx
+++ b/case_tmp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="376">
   <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,9 @@
     <t>P1</t>
   </si>
   <si>
+    <t>P2</t>
+  </si>
+  <si>
     <t>3_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3716,10 +3719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万象搜索设置页面的展示量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3729,6 +3728,155 @@
   </si>
   <si>
     <t>06000000</t>
+  </si>
+  <si>
+    <t>06000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面的展示量 - 系统设置的其他列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34_2</t>
+  </si>
+  <si>
+    <t>34_3</t>
+  </si>
+  <si>
+    <t>34_4</t>
+  </si>
+  <si>
+    <t>34_5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索设置页面的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务卡片设置页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面的展示量 - 用户反馈页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索设置页面的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订阅卡片页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面的展示量 - 其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,from:07010000,pano_session_id_fine_grained,variant_name,keyboard_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,from:06010000,pano_session_id_fine_grained,variant_name,keyboard_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,from:06030000,pano_session_id_fine_grained,variant_name,keyboard_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,from:06040000,pano_session_id_fine_grained,variant_name,keyboard_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,from:10000000,pano_session_id_fine_grained,variant_name,keyboard_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06000000"}</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePanoSettingsFromCardEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePanoSettingsFromFeedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePanoSettingsFromSysSettings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePanoSettingsFromPersonalSettings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePanoSettingsFromUnlockScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34_6</t>
+  </si>
+  <si>
+    <t>exposePanoSettingsFromMenulist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3801,7 +3949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3812,6 +3960,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4094,11 +4248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67:G67"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4183,7 +4337,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -4198,7 +4352,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -4253,10 +4407,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -4270,7 +4424,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
@@ -4299,7 +4453,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
@@ -4328,7 +4482,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>38</v>
@@ -4357,7 +4511,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
@@ -4380,19 +4534,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
@@ -4401,7 +4555,7 @@
         <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -4409,19 +4563,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>15</v>
@@ -4430,7 +4584,7 @@
         <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -4438,19 +4592,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
@@ -4459,7 +4613,7 @@
         <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -4467,19 +4621,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>15</v>
@@ -4488,7 +4642,7 @@
         <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -4496,1685 +4650,1854 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="J40" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="I46" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="J47" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="J48" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="I49" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="F50" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="J50" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="J57" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="J58" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="J59" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="J60" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="I66" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J66" s="2" t="s">
+      <c r="E67" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="G67" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="C68" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>310</v>
+      <c r="F69" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/case_tmp.xlsx
+++ b/case_tmp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="479">
   <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3033,6 +3033,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3818,10 +3822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万象搜索设置页面的展示量 - 其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pano_session_id,from:07010000,pano_session_id_fine_grained,variant_name,keyboard_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3877,6 +3877,469 @@
   </si>
   <si>
     <t>exposePanoSettingsFromMenulist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from:10000000,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_page_module_id,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35_2</t>
+  </si>
+  <si>
+    <t>35_3</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06010000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePersonalSettingsFromHomepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePersonalSettingsFromScreenlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePersonalSettingsFromTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06030000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36_2</t>
+  </si>
+  <si>
+    <t>36_3</t>
+  </si>
+  <si>
+    <t>exposeFeedbackFromScreenLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeFeedbackFromTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeFeedbackFromHomepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,pano_session_id_fine_grained,from:10000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,pano_session_id_fine_grained,from:10000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,pano_session_id_fine_grained,from:06000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06030000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06030000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"06010000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_page_module_id,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面的展示量 - 其他 - 锁屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面的展示量 - 其他 - 任务管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面服务卡片设置的展示量 - 锁屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面服务卡片设置的展示量 - 任务管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面服务卡片设置的展示量 - 首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面用户反馈的展示量 - 锁屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面用户反馈的展示量 - 任务管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面用户反馈的展示量 - 首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面服务卡片设置中状态变化的点击 - 开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索设置页面服务卡片设置中状态变化的点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37_2</t>
+  </si>
+  <si>
+    <t>clickSwitchOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickSwitchOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页中搜索结果直播中的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_ol,pos_al,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03020700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03020700"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页中搜索结果去预约的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03020800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03020800"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickTogoLIVEinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickSubscribeLIVEinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页搜索结果中缓存按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021700"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickPreloadinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页搜索结果中直达按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickGoinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021600"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索搜索结果页影院的近期上映展开的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021800"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021900"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索搜索结果页影院的导航的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickNavigationinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索搜索结果页影院的叫车的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03022000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03022000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCallCarinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickRecentFilminSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021801"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03021801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索搜索结果页影院的近期上映影片的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickFilminSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCancelInstallinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010700"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03010700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页应用搜索结果暂停按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickContinueInstallinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010600"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03010600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页应用搜索结果继续按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索首页搜索框运营词出现时键盘上搜索按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickHotWords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"01100100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,pano_session_id,pano_session_id_fine_grained,switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03030000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03030000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeQVSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索搜索结果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的展示量</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4248,11 +4711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5740,7 +6203,7 @@
         <v>212</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>240</v>
@@ -5758,30 +6221,30 @@
         <v>241</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>69</v>
@@ -5790,27 +6253,27 @@
         <v>232</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>220</v>
@@ -5819,30 +6282,30 @@
         <v>215</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>220</v>
@@ -5851,30 +6314,30 @@
         <v>215</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>220</v>
@@ -5883,30 +6346,30 @@
         <v>215</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>220</v>
@@ -5915,30 +6378,30 @@
         <v>215</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>220</v>
@@ -5947,30 +6410,30 @@
         <v>215</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>220</v>
@@ -5979,30 +6442,30 @@
         <v>215</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>220</v>
@@ -6011,30 +6474,30 @@
         <v>215</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>220</v>
@@ -6043,30 +6506,30 @@
         <v>215</v>
       </c>
       <c r="H58" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="J58" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>220</v>
@@ -6075,30 +6538,30 @@
         <v>215</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>220</v>
@@ -6107,62 +6570,62 @@
         <v>215</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>220</v>
@@ -6171,30 +6634,30 @@
         <v>215</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>220</v>
@@ -6203,62 +6666,62 @@
         <v>215</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>220</v>
@@ -6267,68 +6730,68 @@
         <v>215</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I65" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="J66" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>368</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>361</v>
@@ -6342,25 +6805,25 @@
     </row>
     <row r="68" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>362</v>
@@ -6374,25 +6837,25 @@
     </row>
     <row r="69" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>363</v>
@@ -6406,25 +6869,25 @@
     </row>
     <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>364</v>
@@ -6438,25 +6901,25 @@
     </row>
     <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>365</v>
@@ -6476,19 +6939,19 @@
         <v>114</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>365</v>
@@ -6498,6 +6961,646 @@
       </c>
       <c r="J72" s="4" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/case_tmp.xlsx
+++ b/case_tmp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="492">
   <si>
     <t>Summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4340,6 +4340,114 @@
       </rPr>
       <t>的展示量</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页－搜索结果－院线热映</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购票的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03022101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickBuyTicket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03022101"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06010100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡片智能化排序状态变化的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_al,pos_ol,pos_aff,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"06010100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4711,11 +4819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7603,6 +7711,70 @@
         <v>473</v>
       </c>
     </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/case_tmp.xlsx
+++ b/case_tmp.xlsx
@@ -3730,848 +3730,849 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>query,pano_session_id,pano_session_id_fine_grained,switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03030000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03030000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeQVSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索搜索结果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的展示量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03022101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06010100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡片智能化排序状态变化的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_al,pos_ol,pos_aff,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch,pano_session_id,pano_session_id_fine_grained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"06010100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickSwitchSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索首页各版块的展示量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01070000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01070000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01070000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeEachCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickEachCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03020000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页各条结果的曝光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,pano_session_id,pano_session_id_fine_grained,desktop_index,gid,le_mobile_app_id,search_module_id,eid,pos_ol,pos_al,package_name,pos_aff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01070600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被调起数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页-搜索结果-已关注的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021202"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页单条结果曝光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeHomepageEachCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchResEachCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actFromHoldHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acEnd"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickInstallApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页应用搜索结果打开按钮的点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCancelContactListSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acStart"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被暂停数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeLaunchHoldHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeBackFromEditsWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02020000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02030000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeSERPHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被暂停数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 3rd</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actEndViaThrdParty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeNoResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acEnd"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021301"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickContactListCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pano_session_id,from=06010000,pano_session_id_fine_grained</t>
+  </si>
+  <si>
+    <t>pano_session_id,from=06030000,pano_session_id_fine_grained</t>
+  </si>
+  <si>
+    <t>pano_session_id,from=06040000,pano_session_id_fine_grained</t>
+  </si>
+  <si>
+    <t>pano_session_id,from=10000000,pano_session_id_fine_grained</t>
+  </si>
+  <si>
+    <t>from=10000000,pano_session_id,pano_session_id_fine_grained</t>
+  </si>
+  <si>
+    <t>pano_session_id,pano_session_id_fine_grained,from=10000000</t>
+  </si>
+  <si>
+    <t>pano_session_id,pano_session_id_fine_grained,from=06000000</t>
+  </si>
+  <si>
+    <t>exposePanoSettingsFromMenulist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePersonalSettingsFromTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06010000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query,gid,pos_ol,pos_al,category,dt,eid,le_mobile_app_id,search_module_id,pano_session_id,pano_session_id_fine_grained,package_name,pos_aff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposeFeedbackFromHomepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06030000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面服务卡片设置中状态变化的点击 - 开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万象搜索首页的展示量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下拉刷新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=04000000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from=04010000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03020600"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickSearchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03000000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集数的点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010200"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposePanoSettingsFromFeedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索设置页面服务卡片设置的展示量 - 锁屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickBuyTicket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索结果页－搜索结果－院线热映</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购票的点击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"01070000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01070600"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickTogoLIVEinSERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03020700"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010700"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010600"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03022101"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万象搜索首页各细项点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventProps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid,vid,query,package_name,pano_session_id,pano_session_id_fine_grained,switch,has_exposed,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
+  </si>
+  <si>
+    <t>template,pano_session_id,pano_session_id_fine_grained,switch,has_exposed,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
+  </si>
+  <si>
+    <t>template,gid,vid,query,package_name,pano_session_id,pano_session_id_fine_grained,switch,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
+  </si>
+  <si>
+    <t>gid,vid,query,package_name,pano_session_id,pano_session_id_fine_grained,switch,has_exposed,variant_name,keyboard_status,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
+  </si>
+  <si>
+    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"searchRes","widget_id":"03020000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"01100100"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>query,pano_session_id,pano_session_id_fine_grained,switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03030000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03030000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query,pano_session_id,pano_session_id_fine_grained</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeQVSERP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索搜索结果页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的展示量</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03022101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06010100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卡片智能化排序状态变化的点击</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query,gid,pos_al,pos_ol,pos_aff,le_mobile_app_id,search_module_id,eid,pano_session_id,pano_session_id_fine_grained</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch,pano_session_id,pano_session_id_fine_grained</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"06010100"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clickSwitchSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万象搜索首页各版块的展示量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01070000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01070000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01070000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeEachCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clickEachCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03020000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchRes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果页各条结果的曝光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query,pano_session_id,pano_session_id_fine_grained,desktop_index,gid,le_mobile_app_id,search_module_id,eid,pos_ol,pos_al,package_name,pos_aff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeSERP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01070600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被调起数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果页-搜索结果-已关注的点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021202"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页单条结果曝光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeHomepageEachCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchResEachCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜索结果页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜索结果的点击</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actFromHoldHome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acEnd"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clickInstallApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索结果页应用搜索结果打开按钮的点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clickCancelContactListSMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acStart"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被暂停数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeLaunchHoldHome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索首页的展示量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长按</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeBackFromEditsWidget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02020000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"02030000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeSERPHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03000000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>activity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被暂停数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - 3rd</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actEndViaThrdParty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021100"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeNoResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"acEnd"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03021301"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clickContactListCall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06000000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pano_session_id,from=07010000,pano_session_id_fine_grained</t>
-  </si>
-  <si>
-    <t>pano_session_id,from=06010000,pano_session_id_fine_grained</t>
-  </si>
-  <si>
-    <t>pano_session_id,from=06030000,pano_session_id_fine_grained</t>
-  </si>
-  <si>
-    <t>pano_session_id,from=06040000,pano_session_id_fine_grained</t>
-  </si>
-  <si>
-    <t>pano_session_id,from=10000000,pano_session_id_fine_grained</t>
-  </si>
-  <si>
-    <t>from=10000000,pano_session_id,pano_session_id_fine_grained</t>
-  </si>
-  <si>
-    <t>pano_session_id,pano_session_id_fine_grained,from=10000000</t>
-  </si>
-  <si>
-    <t>pano_session_id,pano_session_id_fine_grained,from=06000000</t>
-  </si>
-  <si>
-    <t>exposePanoSettingsFromMenulist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposePersonalSettingsFromTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06010000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query,gid,pos_ol,pos_al,category,dt,eid,le_mobile_app_id,search_module_id,pano_session_id,pano_session_id_fine_grained,package_name,pos_aff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposeFeedbackFromHomepage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"06030000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万象搜索设置页面服务卡片设置中状态变化的点击 - 开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万象搜索首页的展示量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下拉刷新</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from=04000000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from=04010000,pano_session_id,pano_session_id_fine_grained,switch,desktop_index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03020600"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01000000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clickSearchResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"03000000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜索结果页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜索结果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>集数的点击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更多</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010200"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exposePanoSettingsFromFeedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万象搜索设置页面服务卡片设置的展示量 - 锁屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clickBuyTicket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜索结果页－搜索结果－院线热映</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购票的点击</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"01070000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"searchRes","widget_id":"03020000"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"expose","widget_id":"01070600"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clickTogoLIVEinSERP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03020700"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010700"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03010600"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"app_id":"PanoSearch","imei":"862131030039861","event_id":"click","widget_id":"03022101"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万象搜索首页各细项点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventProps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gid,vid,query,package_name,pano_session_id,pano_session_id_fine_grained,switch,has_exposed,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
-  </si>
-  <si>
-    <t>template,pano_session_id,pano_session_id_fine_grained,switch,has_exposed,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
-  </si>
-  <si>
-    <t>template,gid,vid,query,package_name,pano_session_id,pano_session_id_fine_grained,switch,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
-  </si>
-  <si>
-    <t>gid,vid,query,package_name,pano_session_id,pano_session_id_fine_grained,switch,has_exposed,variant_name,keyboard_status,home_page_module_id,pos,sub_module,pos_inmodule,content_type,pos_aff,extra_info,pos_extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4969,8 +4970,8 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4997,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>15</v>
@@ -5009,7 +5010,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -5045,7 +5046,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -5416,7 +5417,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>36</v>
@@ -5432,10 +5433,10 @@
         <v>78</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -5500,13 +5501,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>36</v>
@@ -5525,7 +5526,7 @@
         <v>84</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -5566,7 +5567,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>36</v>
@@ -5582,10 +5583,10 @@
         <v>91</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -5620,7 +5621,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>9</v>
@@ -5740,7 +5741,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>106</v>
@@ -5761,7 +5762,7 @@
         <v>66</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>138</v>
@@ -5778,7 +5779,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>36</v>
@@ -5793,13 +5794,13 @@
         <v>66</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>139</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -5831,7 +5832,7 @@
         <v>140</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -5842,7 +5843,7 @@
         <v>105</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>36</v>
@@ -5860,10 +5861,10 @@
         <v>119</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -5895,7 +5896,7 @@
         <v>141</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -5959,7 +5960,7 @@
         <v>143</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -5967,7 +5968,7 @@
         <v>129</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>135</v>
@@ -5988,7 +5989,7 @@
         <v>123</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>114</v>
@@ -5999,7 +6000,7 @@
         <v>130</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>136</v>
@@ -6028,7 +6029,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>105</v>
@@ -6055,7 +6056,7 @@
         <v>145</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -6116,7 +6117,7 @@
         <v>157</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>155</v>
@@ -6151,7 +6152,7 @@
         <v>163</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -6215,7 +6216,7 @@
         <v>169</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -6244,10 +6245,10 @@
         <v>180</v>
       </c>
       <c r="I41" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -6343,7 +6344,7 @@
         <v>188</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -6418,7 +6419,7 @@
         <v>189</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>191</v>
@@ -6532,10 +6533,10 @@
         <v>206</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -6567,7 +6568,7 @@
         <v>221</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -6578,7 +6579,7 @@
         <v>189</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>212</v>
@@ -6599,7 +6600,7 @@
         <v>225</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -6724,10 +6725,10 @@
         <v>242</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -6770,7 +6771,7 @@
         <v>189</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>247</v>
@@ -6916,10 +6917,10 @@
         <v>266</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -6948,10 +6949,10 @@
         <v>265</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -7041,7 +7042,7 @@
         <v>264</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>290</v>
@@ -7073,7 +7074,7 @@
         <v>264</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>309</v>
@@ -7105,7 +7106,7 @@
         <v>264</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>310</v>
@@ -7137,10 +7138,10 @@
         <v>264</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>306</v>
@@ -7151,7 +7152,7 @@
         <v>300</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>304</v>
@@ -7169,7 +7170,7 @@
         <v>264</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>308</v>
@@ -7201,7 +7202,7 @@
         <v>264</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>311</v>
@@ -7233,13 +7234,13 @@
         <v>264</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
@@ -7250,7 +7251,7 @@
         <v>286</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>39</v>
@@ -7265,7 +7266,7 @@
         <v>264</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>320</v>
@@ -7297,10 +7298,10 @@
         <v>264</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>318</v>
@@ -7335,7 +7336,7 @@
         <v>319</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
@@ -7361,7 +7362,7 @@
         <v>264</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>325</v>
@@ -7393,7 +7394,7 @@
         <v>264</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>326</v>
@@ -7425,13 +7426,13 @@
         <v>264</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
@@ -7442,7 +7443,7 @@
         <v>189</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>39</v>
@@ -7524,10 +7525,10 @@
         <v>344</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
@@ -7783,7 +7784,7 @@
         <v>375</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
@@ -7815,7 +7816,7 @@
         <v>378</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7841,13 +7842,13 @@
         <v>192</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>382</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>384</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -7858,13 +7859,13 @@
         <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>113</v>
@@ -7873,13 +7874,13 @@
         <v>192</v>
       </c>
       <c r="H92" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I92" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="I92" s="5" t="s">
-        <v>389</v>
-      </c>
       <c r="J92" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
@@ -7890,13 +7891,13 @@
         <v>10</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>212</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>214</v>
@@ -7905,13 +7906,13 @@
         <v>192</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
@@ -7922,13 +7923,13 @@
         <v>286</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>395</v>
-      </c>
       <c r="E94" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>214</v>
@@ -7937,13 +7938,13 @@
         <v>192</v>
       </c>
       <c r="H94" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="J94" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
@@ -7954,28 +7955,28 @@
         <v>286</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -7986,13 +7987,13 @@
         <v>286</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>150</v>
@@ -8001,13 +8002,13 @@
         <v>66</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
@@ -8018,28 +8019,28 @@
         <v>10</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E97" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
@@ -8047,29 +8048,29 @@
         <v>55</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H98" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="I98" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="I98" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="J98" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
@@ -8080,13 +8081,13 @@
         <v>286</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>113</v>
@@ -8095,13 +8096,13 @@
         <v>66</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
